--- a/Texts/Город Сокровищ/Все персонажи/Воббафетт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Воббафетт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>SCRIPT/P01P01A/um0404.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0726.ssb</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,6 +501,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>114</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Воббафетт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Воббафетт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>SCRIPT/P01P04A/um0726.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3113.ssb</t>
   </si>
 </sst>
 </file>
@@ -88,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,11 +132,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -154,6 +168,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -436,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,19 +522,36 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>114</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>83</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
